--- a/LF/PreTAS/Burkina Faso/bf_lf_pretas_2_enrollement_202007.xlsx
+++ b/LF/PreTAS/Burkina Faso/bf_lf_pretas_2_enrollement_202007.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Burkina Faso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FB919A-2FA6-47B7-A7F6-3636A6B6CCD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF2E4F0-818C-436B-AE22-F1794272968D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="164">
   <si>
     <t>type</t>
   </si>
@@ -407,9 +407,6 @@
     <t>p_recorder_id</t>
   </si>
   <si>
-    <t>bf_lf_pretas_2_enrollement_202007</t>
-  </si>
-  <si>
     <t>p_cluster_name</t>
   </si>
   <si>
@@ -512,16 +509,22 @@
     <t xml:space="preserve">string-length(.)=10 </t>
   </si>
   <si>
-    <t>string-length(.)=10 and and . = ${manual_code}</t>
-  </si>
-  <si>
     <t>Le code répété doit être le même</t>
   </si>
   <si>
     <t>Trois lettres Majuscules suivies de 3 chiffres</t>
   </si>
   <si>
-    <t>(BF - Juillet 2020) Pré TAS FL - 2. Formulaire Enrôlement</t>
+    <t>bf_lf_pretas_2_enrollement_202007_v2</t>
+  </si>
+  <si>
+    <t>(BF - Juillet 2020) Pré TAS FL - 2. Formulaire Enrôlement V2</t>
+  </si>
+  <si>
+    <t>string-length(.)=10 and  . = ${manual_code}</t>
+  </si>
+  <si>
+    <t>.&gt;0 and .&lt;10</t>
   </si>
 </sst>
 </file>
@@ -593,12 +596,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -606,6 +603,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,9 +709,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -717,6 +719,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1075,24 +1078,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.46875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.703125" customWidth="1"/>
-    <col min="3" max="3" width="57.3515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="20.8203125" customWidth="1"/>
-    <col min="9" max="9" width="33.703125" customWidth="1"/>
-    <col min="11" max="11" width="41.17578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="9" width="33.7109375" customWidth="1"/>
+    <col min="11" max="11" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1133,10 +1136,10 @@
         <v>105</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>65</v>
       </c>
@@ -1150,7 +1153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>76</v>
       </c>
@@ -1164,7 +1167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>76</v>
       </c>
@@ -1187,12 +1190,12 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>
@@ -1205,17 +1208,17 @@
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="16"/>
-    </row>
-    <row r="6" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -1225,17 +1228,17 @@
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="16"/>
-    </row>
-    <row r="7" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="M6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -1243,48 +1246,48 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="16"/>
-    </row>
-    <row r="8" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>92</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>106</v>
@@ -1293,24 +1296,24 @@
         <v>114</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>112</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>121</v>
@@ -1319,19 +1322,19 @@
         <v>114</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="10" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:14" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>76</v>
       </c>
@@ -1341,17 +1344,17 @@
       <c r="C12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>161</v>
+      <c r="D12" s="17" t="s">
+        <v>159</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
@@ -1359,9 +1362,9 @@
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="16"/>
-    </row>
-    <row r="13" spans="1:14" s="10" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="1:14" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>76</v>
       </c>
@@ -1369,16 +1372,16 @@
         <v>118</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
@@ -1386,40 +1389,40 @@
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="16"/>
-    </row>
-    <row r="14" spans="1:14" s="10" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="16"/>
+      <c r="M14" s="15"/>
       <c r="N14" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>19</v>
@@ -1427,34 +1430,34 @@
       <c r="F15" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="10" t="s">
         <v>120</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
@@ -1465,14 +1468,14 @@
         <v>21</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -1482,14 +1485,14 @@
         <v>22</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -1499,14 +1502,14 @@
         <v>107</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -1515,15 +1518,18 @@
       <c r="C20" s="9" t="s">
         <v>108</v>
       </c>
+      <c r="F20" s="18" t="s">
+        <v>163</v>
+      </c>
       <c r="H20" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1533,14 +1539,14 @@
         <v>23</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -1550,11 +1556,11 @@
         <v>62</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>80</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -1563,15 +1569,15 @@
       <c r="C23" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H23" s="17" t="s">
-        <v>134</v>
+      <c r="H23" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>80</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -1580,29 +1586,29 @@
       <c r="C24" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="H24" s="17" t="s">
-        <v>156</v>
+      <c r="H24" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="15" t="s">
+      <c r="H25" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -1612,23 +1618,23 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B27" s="9" t="s">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A28" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
     </row>
   </sheetData>
@@ -1645,17 +1651,17 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.29296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.17578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.17578125" style="10"/>
-    <col min="5" max="5" width="11.5859375" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="9.17578125" style="9"/>
+    <col min="1" max="1" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="10"/>
+    <col min="5" max="5" width="11.5703125" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1675,7 +1681,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>66</v>
       </c>
@@ -1686,7 +1692,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>66</v>
       </c>
@@ -1697,7 +1703,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>66</v>
       </c>
@@ -1708,7 +1714,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>66</v>
       </c>
@@ -1719,7 +1725,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>66</v>
       </c>
@@ -1730,7 +1736,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>66</v>
       </c>
@@ -1741,7 +1747,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>66</v>
       </c>
@@ -1752,7 +1758,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>66</v>
       </c>
@@ -1763,10 +1769,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>52</v>
       </c>
@@ -1777,7 +1783,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>52</v>
       </c>
@@ -1788,7 +1794,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>48</v>
       </c>
@@ -1799,7 +1805,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>48</v>
       </c>
@@ -1810,7 +1816,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>48</v>
       </c>
@@ -1821,7 +1827,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>48</v>
       </c>
@@ -1832,7 +1838,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>48</v>
       </c>
@@ -1843,7 +1849,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>71</v>
       </c>
@@ -1854,7 +1860,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>71</v>
       </c>
@@ -1865,7 +1871,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>95</v>
       </c>
@@ -1876,7 +1882,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>95</v>
       </c>
@@ -1887,7 +1893,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>34</v>
       </c>
@@ -1898,7 +1904,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>34</v>
       </c>
@@ -1909,7 +1915,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>34</v>
       </c>
@@ -1920,7 +1926,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
@@ -1931,7 +1937,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>26</v>
       </c>
@@ -1942,7 +1948,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>32</v>
       </c>
@@ -1953,7 +1959,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>32</v>
       </c>
@@ -1977,18 +1983,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.3515625" customWidth="1"/>
-    <col min="3" max="3" width="11.17578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -2002,12 +2008,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="C2">
         <v>20200625</v>
